--- a/result/sol.xlsx
+++ b/result/sol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DA\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CV\main\Parking_Lot_NonDL\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C7C70D-7AF0-450E-AA1A-68CE1CE3462D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2344FF0-BA09-4120-B493-187DF3198B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{A3AAACC4-C08D-4BFF-98FA-340FB21A62A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{A3AAACC4-C08D-4BFF-98FA-340FB21A62A7}"/>
   </bookViews>
   <sheets>
     <sheet name="sol1" sheetId="2" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:I26"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,19 +1305,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C65C89F-BBF7-4423-844C-A74A6FF6D117}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
@@ -1354,840 +1354,115 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <f>SUM(B2,D2)/SUM(B2,C2,D2,E2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" t="e">
-        <f>2*(H2*I2)/(H2+I2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H2">
-        <f>B2/(B2+C2)</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>B2/(B2+E2)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F4" si="0">SUM(B2,D2)/SUM(B2,C2,D2,E2)</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G4" si="1">2*(H2*I2)/(H2+I2)</f>
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H4" si="2">B2/(B2+C2)</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I4" si="3">B2/(B2+E2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F26" si="0">SUM(B3,D3)/SUM(B3,C3,D3,E3)</f>
-        <v>0.66</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G26" si="1">2*(H3*I3)/(H3+I3)</f>
-        <v>0.72131147540983609</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H26" si="2">B3/(B3+C3)</f>
-        <v>0.70967741935483875</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I26" si="3">B3/(B3+E3)</f>
-        <v>0.73333333333333328</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="1"/>
+        <v>0.76190476190476197</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>0.23999999999999996</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>0.15789473684210525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.5625</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>0.81818181818181823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>17</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>42</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>38</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>0.86666666666666659</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>0.76190476190476197</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>0.55555555555555558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0.57142857142857151</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0.63157894736842102</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0.77419354838709686</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0.4375</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>0.60869565217391308</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="G19">
+      <c r="G4" s="1">
         <f t="shared" si="1"/>
         <v>0.95652173913043481</v>
       </c>
-      <c r="H19">
+      <c r="H4" s="1">
         <f t="shared" si="2"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>274</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>90</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>60</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>66</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>40</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>48</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>26</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11AC5EE-2320-497C-BD72-BCE6E5AC8813}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F26" si="0">SUM(B3,D3)/SUM(B3,C3,D3,E3)</f>
+        <f t="shared" ref="F3:F22" si="0">SUM(B3,D3)/SUM(B3,C3,D3,E3)</f>
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G26" si="1">2*(H3*I3)/(H3+I3)</f>
+        <f t="shared" ref="G3:G22" si="1">2*(H3*I3)/(H3+I3)</f>
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H26" si="2">B3/(B3+C3)</f>
+        <f t="shared" ref="H3:H22" si="2">B3/(B3+C3)</f>
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I26" si="3">B3/(B3+E3)</f>
+        <f t="shared" ref="I3:I22" si="3">B3/(B3+E3)</f>
         <v>1</v>
       </c>
     </row>
@@ -2552,17 +1827,44 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2592,13 +1894,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2608,15 +1910,15 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.88888888888888895</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="3"/>
@@ -2624,20 +1926,47 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="2">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>207</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2647,15 +1976,15 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>0.88888888888888895</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="3"/>
@@ -2663,59 +1992,113 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>66</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.89189189189189189</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.90410958904109584</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.88</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19">
         <v>22</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2725,15 +2108,15 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.97297297297297303</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.98630136986301375</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.97297297297297303</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="3"/>
@@ -2742,10 +2125,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2775,165 +2158,33 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.80487804878048785</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
-        <v>0.89189189189189189</v>
+        <v>0.94339622641509446</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="2"/>
-        <v>0.90410958904109584</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="3"/>
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>100</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>36</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.97297297297297303</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>0.98630136986301375</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="2"/>
-        <v>0.97297297297297303</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>61</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="1"/>
-        <v>0.94339622641509446</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="2"/>
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="I26" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2945,10 +2196,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A522945-7092-4560-9466-AB24D619C555}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3032,19 +2283,19 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F26" si="0">SUM(B3,D3)/SUM(B3,C3,D3,E3)</f>
+        <f t="shared" ref="F3:F18" si="0">SUM(B3,D3)/SUM(B3,C3,D3,E3)</f>
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G26" si="1">2*(H3*I3)/(H3+I3)</f>
+        <f t="shared" ref="G3:G18" si="1">2*(H3*I3)/(H3+I3)</f>
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H26" si="2">B3/(B3+C3)</f>
+        <f t="shared" ref="H3:H18" si="2">B3/(B3+C3)</f>
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I26" si="3">B3/(B3+E3)</f>
+        <f t="shared" ref="I3:I18" si="3">B3/(B3+E3)</f>
         <v>1</v>
       </c>
     </row>
@@ -3181,39 +2432,61 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96296296296296302</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9285714285714286</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.9285714285714286</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>0.96296296296296302</v>
+        <v>0.86206896551724133</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="2"/>
@@ -3221,15 +2494,15 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="3"/>
-        <v>0.9285714285714286</v>
+        <v>0.75757575757575757</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3238,15 +2511,15 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.75757575757575757</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>0.86206896551724133</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="2"/>
@@ -3254,27 +2527,81 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="3"/>
-        <v>0.75757575757575757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87500000000000011</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.77777777777777779</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3304,10 +2631,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3336,61 +2663,61 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.87500000000000011</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="3"/>
-        <v>0.77777777777777779</v>
+      <c r="A15" s="2">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B16">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>8</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.87878787878787878</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="2"/>
@@ -3398,200 +2725,71 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.78378378378378377</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B17">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63934426229508201</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.63934426229508201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
         <v>15</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>29</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>8</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.78378378378378377</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>0.87878787878787878</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="3"/>
-        <v>0.78378378378378377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>39</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>22</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.63934426229508201</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>0.78</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="3"/>
-        <v>0.63934426229508201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>15</v>
-      </c>
-      <c r="C26">
+      <c r="C18">
         <v>13</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>12</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G18" s="1">
         <f t="shared" si="1"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H18" s="1">
         <f t="shared" si="2"/>
         <v>0.5357142857142857</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I18" s="1">
         <f t="shared" si="3"/>
         <v>0.55555555555555558</v>
       </c>
